--- a/EvitelExport20230318c.xlsx
+++ b/EvitelExport20230318c.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUMMY\Simona\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APLIKACE\EVITEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,15 +14,17 @@
   <sheets>
     <sheet name="List2" sheetId="2" r:id="rId1"/>
     <sheet name="List3" sheetId="3" r:id="rId2"/>
-    <sheet name="List1" sheetId="1" r:id="rId3"/>
+    <sheet name="List4" sheetId="4" r:id="rId3"/>
+    <sheet name="List1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_List1A1AU292" hidden="1">List1!$A$1:$AU$292</definedName>
+    <definedName name="_xlcn.WorksheetConnection_List1A1AU2921" hidden="1">List1!$A$1:$AU$292</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="42" r:id="rId5"/>
+    <pivotCache cacheId="45" r:id="rId6"/>
+    <pivotCache cacheId="48" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -51,7 +53,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Rozsah-15f7878b-ff0d-40f5-bc3b-a9a036e6deb7" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_List1A1AU292"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_List1A1AU2921"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12947" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11939" uniqueCount="1019">
   <si>
     <t>ID osoby</t>
   </si>
@@ -3131,192 +3133,6 @@
     <t>KI manželce, synovi, dceři a jejímu manželovi</t>
   </si>
   <si>
-    <t>29.12.2022 0:00:00</t>
-  </si>
-  <si>
-    <t>RICANY</t>
-  </si>
-  <si>
-    <t>18.03.2023 18:39:00</t>
-  </si>
-  <si>
-    <t>18:39:00</t>
-  </si>
-  <si>
-    <t>Poznamka k intervenci</t>
-  </si>
-  <si>
-    <t>svědek události (jinde neuvedený)</t>
-  </si>
-  <si>
-    <t>organizace</t>
-  </si>
-  <si>
-    <t>poznamka k postizenemu</t>
-  </si>
-  <si>
-    <t>18.03.2023 8:14:00</t>
-  </si>
-  <si>
-    <t>08:14:00</t>
-  </si>
-  <si>
-    <t>11:04:00</t>
-  </si>
-  <si>
-    <t>regergergerg</t>
-  </si>
-  <si>
-    <t>08.12.2022 0:00:00</t>
-  </si>
-  <si>
-    <t>18.03.2023 11:04:00</t>
-  </si>
-  <si>
-    <t>Seifert L.</t>
-  </si>
-  <si>
-    <t>01.12.2022 0:00:00</t>
-  </si>
-  <si>
-    <t>Upravená poznámka</t>
-  </si>
-  <si>
-    <t>doprovod</t>
-  </si>
-  <si>
-    <t>Boháčová A.</t>
-  </si>
-  <si>
-    <t>poznamka</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>ewfwef</t>
-  </si>
-  <si>
-    <t>spolupracovník oběti</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>rwefrfr546546g</t>
-  </si>
-  <si>
-    <t>21.12.2022 0:00:00</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>18.03.2023 22:45:00</t>
-  </si>
-  <si>
-    <t>1043</t>
-  </si>
-  <si>
-    <t>KI poškozenému, mamince poškozeného a tatínkovi poškozeného</t>
-  </si>
-  <si>
-    <t>02:12:00</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>18.03.2023 22:41:00</t>
-  </si>
-  <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>KI svědkyni</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Jiné, různé (uveďte příp. v poznámce)</t>
-  </si>
-  <si>
-    <t>05.11.2022 0:00:00</t>
-  </si>
-  <si>
-    <t>Most</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>18.03.2023 12:15:00</t>
-  </si>
-  <si>
-    <t>Drexlerová Šárová M.</t>
-  </si>
-  <si>
-    <t>08:55:00</t>
-  </si>
-  <si>
-    <t>11:25:00</t>
-  </si>
-  <si>
-    <t>KI: matka 60, pozn. intervence byla tak pozdě od činu, protože matka nebyla dřív informována, co se stalo.</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>01.11.2022 0:00:00</t>
-  </si>
-  <si>
-    <t>Jablůnka</t>
-  </si>
-  <si>
-    <t>18.03.2023 10:19:00</t>
-  </si>
-  <si>
-    <t>Vyrozumění a krizová intervence poskytnuta matce (43), otci (46), tetě (40) a strýci (42) zemřelého řidiče, dále pěstounské matce (56) a bratrovi (23) zemřelého spolujezdce a následně přítelkyni (20) a milence (18) řidiče.</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>01.07.2022 0:00:00</t>
-  </si>
-  <si>
-    <t>1067</t>
-  </si>
-  <si>
-    <t>KI oběti F 17 a jejím rodičům F40, M40</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
     <t>185</t>
   </si>
   <si>
@@ -3354,6 +3170,9 @@
   </si>
   <si>
     <t>Účastníci</t>
+  </si>
+  <si>
+    <t>(prázdné)</t>
   </si>
 </sst>
 </file>
@@ -3524,35 +3343,35 @@
             <c:multiLvlStrRef>
               <c:f>List2!$A$4:$A$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1</c:v>
+                    <c:v>(prázdné)</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>12</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
                     <c:v>3</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2022</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="3">
                     <c:v>2023</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3564,26 +3383,20 @@
               <c:f>List2!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -3618,35 +3431,35 @@
             <c:multiLvlStrRef>
               <c:f>List2!$A$4:$A$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1</c:v>
+                    <c:v>(prázdné)</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>12</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
                     <c:v>3</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2022</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="3">
                     <c:v>2023</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3658,26 +3471,23 @@
               <c:f>List2!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
@@ -3712,35 +3522,35 @@
             <c:multiLvlStrRef>
               <c:f>List2!$A$4:$A$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1</c:v>
+                    <c:v>(prázdné)</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>12</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
                     <c:v>3</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2022</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="3">
                     <c:v>2023</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3752,26 +3562,23 @@
               <c:f>List2!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
@@ -3788,11 +3595,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="445936952"/>
-        <c:axId val="445613344"/>
+        <c:axId val="332576224"/>
+        <c:axId val="332576608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445936952"/>
+        <c:axId val="332576224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3835,7 +3642,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445613344"/>
+        <c:crossAx val="332576608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3843,7 +3650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445613344"/>
+        <c:axId val="332576608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3894,7 +3701,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445936952"/>
+        <c:crossAx val="332576224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4565,21 +4372,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Zdeněk Petřík" refreshedDate="45003.740895949071" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Zdeněk Petřík" refreshedDate="45021.707189351851" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[Rozsah].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="1" level="1">
-      <sharedItems count="2">
+      <sharedItems containsBlank="1" count="3">
+        <m/>
         <s v="2022"/>
         <s v="2023"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Rozsah].[Měsíc].[Měsíc]" caption="Měsíc" numFmtId="0" hierarchy="2" level="1">
-      <sharedItems count="6">
+      <sharedItems containsBlank="1" count="5">
+        <m/>
         <s v="1"/>
-        <s v="11"/>
         <s v="12"/>
-        <s v="7"/>
         <s v="2"/>
         <s v="3"/>
       </sharedItems>
@@ -4713,21 +4520,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Zdeněk Petřík" refreshedDate="45003.741807523147" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Zdeněk Petřík" refreshedDate="45021.707190856483" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
     <cacheField name="[Rozsah].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="1" level="1">
-      <sharedItems count="2">
+      <sharedItems containsBlank="1" count="3">
+        <m/>
         <s v="2022"/>
         <s v="2023"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Rozsah].[Měsíc].[Měsíc]" caption="Měsíc" numFmtId="0" hierarchy="2" level="1">
-      <sharedItems count="6">
+      <sharedItems containsBlank="1" count="5">
+        <m/>
         <s v="1"/>
-        <s v="11"/>
         <s v="12"/>
-        <s v="7"/>
         <s v="2"/>
         <s v="3"/>
       </sharedItems>
@@ -4736,7 +4543,8 @@
     <cacheField name="[Measures].[Jednoznačný počet Událost ID]" caption="Jednoznačný počet Událost ID" numFmtId="0" hierarchy="50" level="32767"/>
     <cacheField name="[Measures].[Jednoznačný počet Intervence Id]" caption="Jednoznačný počet Intervence Id" numFmtId="0" hierarchy="51" level="32767"/>
     <cacheField name="[Rozsah].[První int.].[První int.]" caption="První int." numFmtId="0" hierarchy="31" level="1">
-      <sharedItems count="2">
+      <sharedItems containsBlank="1" count="3">
+        <m/>
         <s v="False"/>
         <s v="True"/>
       </sharedItems>
@@ -4760,7 +4568,7 @@
     <cacheHierarchy uniqueName="[Rozsah].[Čas]" caption="Čas" attribute="1" defaultMemberUniqueName="[Rozsah].[Čas].[All]" allUniqueName="[Rozsah].[Čas].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Událost]" caption="Událost" attribute="1" defaultMemberUniqueName="[Rozsah].[Událost].[All]" allUniqueName="[Rozsah].[Událost].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Kategorie]" caption="Kategorie" attribute="1" defaultMemberUniqueName="[Rozsah].[Kategorie].[All]" allUniqueName="[Rozsah].[Kategorie].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rozsah].[Kraj]" caption="Kraj" attribute="1" defaultMemberUniqueName="[Rozsah].[Kraj].[All]" allUniqueName="[Rozsah].[Kraj].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Kraj]" caption="Kraj" attribute="1" defaultMemberUniqueName="[Rozsah].[Kraj].[All]" allUniqueName="[Rozsah].[Kraj].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Místo]" caption="Místo" attribute="1" defaultMemberUniqueName="[Rozsah].[Místo].[All]" allUniqueName="[Rozsah].[Místo].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Počet Poškocených]" caption="Počet Poškocených" attribute="1" defaultMemberUniqueName="[Rozsah].[Počet Poškocených].[All]" allUniqueName="[Rozsah].[Počet Poškocených].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Událost ID]" caption="Událost ID" attribute="1" defaultMemberUniqueName="[Rozsah].[Událost ID].[All]" allUniqueName="[Rozsah].[Událost ID].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -4779,9 +4587,9 @@
     <cacheHierarchy uniqueName="[Rozsah].[Pořadí int.]" caption="Pořadí int." attribute="1" defaultMemberUniqueName="[Rozsah].[Pořadí int.].[All]" allUniqueName="[Rozsah].[Pořadí int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Poznámka int.]" caption="Poznámka int." attribute="1" defaultMemberUniqueName="[Rozsah].[Poznámka int.].[All]" allUniqueName="[Rozsah].[Poznámka int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Forma účasti]" caption="Forma účasti" attribute="1" defaultMemberUniqueName="[Rozsah].[Forma účasti].[All]" allUniqueName="[Rozsah].[Forma účasti].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rozsah].[Pohlaví]" caption="Pohlaví" attribute="1" defaultMemberUniqueName="[Rozsah].[Pohlaví].[All]" allUniqueName="[Rozsah].[Pohlaví].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rozsah].[Věk]" caption="Věk" attribute="1" defaultMemberUniqueName="[Rozsah].[Věk].[All]" allUniqueName="[Rozsah].[Věk].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rozsah].[Smrt]" caption="Smrt" attribute="1" defaultMemberUniqueName="[Rozsah].[Smrt].[All]" allUniqueName="[Rozsah].[Smrt].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Pohlaví]" caption="Pohlaví" attribute="1" defaultMemberUniqueName="[Rozsah].[Pohlaví].[All]" allUniqueName="[Rozsah].[Pohlaví].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Věk]" caption="Věk" attribute="1" defaultMemberUniqueName="[Rozsah].[Věk].[All]" allUniqueName="[Rozsah].[Věk].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Smrt]" caption="Smrt" attribute="1" defaultMemberUniqueName="[Rozsah].[Smrt].[All]" allUniqueName="[Rozsah].[Smrt].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Zranění]" caption="Zranění" attribute="1" defaultMemberUniqueName="[Rozsah].[Zranění].[All]" allUniqueName="[Rozsah].[Zranění].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Intervence]" caption="Intervence" attribute="1" defaultMemberUniqueName="[Rozsah].[Intervence].[All]" allUniqueName="[Rozsah].[Intervence].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[První int.]" caption="První int." attribute="1" defaultMemberUniqueName="[Rozsah].[První int.].[All]" allUniqueName="[Rozsah].[První int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
@@ -4790,7 +4598,7 @@
         <fieldUsage x="5"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Rozsah].[Druh int.]" caption="Druh int." attribute="1" defaultMemberUniqueName="[Rozsah].[Druh int.].[All]" allUniqueName="[Rozsah].[Druh int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Druh int.]" caption="Druh int." attribute="1" defaultMemberUniqueName="[Rozsah].[Druh int.].[All]" allUniqueName="[Rozsah].[Druh int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Intervent 1]" caption="Intervent 1" attribute="1" defaultMemberUniqueName="[Rozsah].[Intervent 1].[All]" allUniqueName="[Rozsah].[Intervent 1].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Intervent 2]" caption="Intervent 2" attribute="1" defaultMemberUniqueName="[Rozsah].[Intervent 2].[All]" allUniqueName="[Rozsah].[Intervent 2].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rozsah].[Souhlas]" caption="Souhlas" attribute="1" defaultMemberUniqueName="[Rozsah].[Souhlas].[All]" allUniqueName="[Rozsah].[Souhlas].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -4871,25 +4679,169 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Zdeněk Petřík" refreshedDate="45021.707192361115" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Rozsah].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems containsBlank="1" count="3">
+        <m/>
+        <s v="2022"/>
+        <s v="2023"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Rozsah].[Měsíc].[Měsíc]" caption="Měsíc" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems containsBlank="1" count="5">
+        <m/>
+        <s v="1"/>
+        <s v="12"/>
+        <s v="2"/>
+        <s v="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Počet ID osoby]" caption="Počet ID osoby" numFmtId="0" hierarchy="47" level="32767"/>
+    <cacheField name="[Measures].[Jednoznačný počet Událost ID]" caption="Jednoznačný počet Událost ID" numFmtId="0" hierarchy="50" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="54">
+    <cacheHierarchy uniqueName="[Rozsah].[ID osoby]" caption="ID osoby" attribute="1" defaultMemberUniqueName="[Rozsah].[ID osoby].[All]" allUniqueName="[Rozsah].[ID osoby].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Rok]" caption="Rok" attribute="1" defaultMemberUniqueName="[Rozsah].[Rok].[All]" allUniqueName="[Rozsah].[Rok].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Rozsah].[Měsíc]" caption="Měsíc" attribute="1" defaultMemberUniqueName="[Rozsah].[Měsíc].[All]" allUniqueName="[Rozsah].[Měsíc].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Rozsah].[Událost datum]" caption="Událost datum" attribute="1" defaultMemberUniqueName="[Rozsah].[Událost datum].[All]" allUniqueName="[Rozsah].[Událost datum].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Čas]" caption="Čas" attribute="1" defaultMemberUniqueName="[Rozsah].[Čas].[All]" allUniqueName="[Rozsah].[Čas].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Událost]" caption="Událost" attribute="1" defaultMemberUniqueName="[Rozsah].[Událost].[All]" allUniqueName="[Rozsah].[Událost].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Kategorie]" caption="Kategorie" attribute="1" defaultMemberUniqueName="[Rozsah].[Kategorie].[All]" allUniqueName="[Rozsah].[Kategorie].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Kraj]" caption="Kraj" attribute="1" defaultMemberUniqueName="[Rozsah].[Kraj].[All]" allUniqueName="[Rozsah].[Kraj].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Místo]" caption="Místo" attribute="1" defaultMemberUniqueName="[Rozsah].[Místo].[All]" allUniqueName="[Rozsah].[Místo].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Počet Poškocených]" caption="Počet Poškocených" attribute="1" defaultMemberUniqueName="[Rozsah].[Počet Poškocených].[All]" allUniqueName="[Rozsah].[Počet Poškocených].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Událost ID]" caption="Událost ID" attribute="1" defaultMemberUniqueName="[Rozsah].[Událost ID].[All]" allUniqueName="[Rozsah].[Událost ID].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Volání datum]" caption="Volání datum" attribute="1" defaultMemberUniqueName="[Rozsah].[Volání datum].[All]" allUniqueName="[Rozsah].[Volání datum].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Čas tf.]" caption="Čas tf." attribute="1" defaultMemberUniqueName="[Rozsah].[Čas tf.].[All]" allUniqueName="[Rozsah].[Čas tf.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Volajici]" caption="Volajici" attribute="1" defaultMemberUniqueName="[Rozsah].[Volajici].[All]" allUniqueName="[Rozsah].[Volajici].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Kraj Volajicí]" caption="Kraj Volajicí" attribute="1" defaultMemberUniqueName="[Rozsah].[Kraj Volajicí].[All]" allUniqueName="[Rozsah].[Kraj Volajicí].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Intervence Id]" caption="Intervence Id" attribute="1" defaultMemberUniqueName="[Rozsah].[Intervence Id].[All]" allUniqueName="[Rozsah].[Intervence Id].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Intervence datum]" caption="Intervence datum" attribute="1" defaultMemberUniqueName="[Rozsah].[Intervence datum].[All]" allUniqueName="[Rozsah].[Intervence datum].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Čas int.]" caption="Čas int." attribute="1" defaultMemberUniqueName="[Rozsah].[Čas int.].[All]" allUniqueName="[Rozsah].[Čas int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[End int.]" caption="End int." attribute="1" defaultMemberUniqueName="[Rozsah].[End int.].[All]" allUniqueName="[Rozsah].[End int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Doba int.]" caption="Doba int." attribute="1" defaultMemberUniqueName="[Rozsah].[Doba int.].[All]" allUniqueName="[Rozsah].[Doba int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Obětem Poškozeným]" caption="Obětem Poškozeným" attribute="1" defaultMemberUniqueName="[Rozsah].[Obětem Poškozeným].[All]" allUniqueName="[Rozsah].[Obětem Poškozeným].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Blízkým Blízkým]" caption="Blízkým Blízkým" attribute="1" defaultMemberUniqueName="[Rozsah].[Blízkým Blízkým].[All]" allUniqueName="[Rozsah].[Blízkým Blízkým].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Ostatním]" caption="Ostatním" attribute="1" defaultMemberUniqueName="[Rozsah].[Ostatním].[All]" allUniqueName="[Rozsah].[Ostatním].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Pořadí int.]" caption="Pořadí int." attribute="1" defaultMemberUniqueName="[Rozsah].[Pořadí int.].[All]" allUniqueName="[Rozsah].[Pořadí int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Poznámka int.]" caption="Poznámka int." attribute="1" defaultMemberUniqueName="[Rozsah].[Poznámka int.].[All]" allUniqueName="[Rozsah].[Poznámka int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Forma účasti]" caption="Forma účasti" attribute="1" defaultMemberUniqueName="[Rozsah].[Forma účasti].[All]" allUniqueName="[Rozsah].[Forma účasti].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Pohlaví]" caption="Pohlaví" attribute="1" defaultMemberUniqueName="[Rozsah].[Pohlaví].[All]" allUniqueName="[Rozsah].[Pohlaví].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Věk]" caption="Věk" attribute="1" defaultMemberUniqueName="[Rozsah].[Věk].[All]" allUniqueName="[Rozsah].[Věk].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Smrt]" caption="Smrt" attribute="1" defaultMemberUniqueName="[Rozsah].[Smrt].[All]" allUniqueName="[Rozsah].[Smrt].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Zranění]" caption="Zranění" attribute="1" defaultMemberUniqueName="[Rozsah].[Zranění].[All]" allUniqueName="[Rozsah].[Zranění].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Intervence]" caption="Intervence" attribute="1" defaultMemberUniqueName="[Rozsah].[Intervence].[All]" allUniqueName="[Rozsah].[Intervence].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[První int.]" caption="První int." attribute="1" defaultMemberUniqueName="[Rozsah].[První int.].[All]" allUniqueName="[Rozsah].[První int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Druh int.]" caption="Druh int." attribute="1" defaultMemberUniqueName="[Rozsah].[Druh int.].[All]" allUniqueName="[Rozsah].[Druh int.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Intervent 1]" caption="Intervent 1" attribute="1" defaultMemberUniqueName="[Rozsah].[Intervent 1].[All]" allUniqueName="[Rozsah].[Intervent 1].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Intervent 2]" caption="Intervent 2" attribute="1" defaultMemberUniqueName="[Rozsah].[Intervent 2].[All]" allUniqueName="[Rozsah].[Intervent 2].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Souhlas]" caption="Souhlas" attribute="1" defaultMemberUniqueName="[Rozsah].[Souhlas].[All]" allUniqueName="[Rozsah].[Souhlas].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Souhlas BKB]" caption="Souhlas BKB" attribute="1" defaultMemberUniqueName="[Rozsah].[Souhlas BKB].[All]" allUniqueName="[Rozsah].[Souhlas BKB].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Kontakt]" caption="Kontakt" attribute="1" defaultMemberUniqueName="[Rozsah].[Kontakt].[All]" allUniqueName="[Rozsah].[Kontakt].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Policista]" caption="Policista" attribute="1" defaultMemberUniqueName="[Rozsah].[Policista].[All]" allUniqueName="[Rozsah].[Policista].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Blízká polic.]" caption="Blízká polic." attribute="1" defaultMemberUniqueName="[Rozsah].[Blízká polic.].[All]" allUniqueName="[Rozsah].[Blízká polic.].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Senior]" caption="Senior" attribute="1" defaultMemberUniqueName="[Rozsah].[Senior].[All]" allUniqueName="[Rozsah].[Senior].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Mladiství]" caption="Mladiství" attribute="1" defaultMemberUniqueName="[Rozsah].[Mladiství].[All]" allUniqueName="[Rozsah].[Mladiství].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[ZTP]" caption="ZTP" attribute="1" defaultMemberUniqueName="[Rozsah].[ZTP].[All]" allUniqueName="[Rozsah].[ZTP].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Duševní porucha]" caption="Duševní porucha" attribute="1" defaultMemberUniqueName="[Rozsah].[Duševní porucha].[All]" allUniqueName="[Rozsah].[Duševní porucha].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Minorita]" caption="Minorita" attribute="1" defaultMemberUniqueName="[Rozsah].[Minorita].[All]" allUniqueName="[Rozsah].[Minorita].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Organizace]" caption="Organizace" attribute="1" defaultMemberUniqueName="[Rozsah].[Organizace].[All]" allUniqueName="[Rozsah].[Organizace].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Poznámka]" caption="Poznámka" attribute="1" defaultMemberUniqueName="[Rozsah].[Poznámka].[All]" allUniqueName="[Rozsah].[Poznámka].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Počet ID osoby]" caption="Počet ID osoby" measure="1" displayFolder="" measureGroup="Rozsah" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Počet Událost ID]" caption="Počet Událost ID" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Počet Intervence Id]" caption="Počet Intervence Id" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Jednoznačný počet Událost ID]" caption="Jednoznačný počet Událost ID" measure="1" displayFolder="" measureGroup="Rozsah" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Jednoznačný počet Intervence Id]" caption="Jednoznačný počet Intervence Id" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Rozsah]" caption="__XL_Count Rozsah" measure="1" displayFolder="" measureGroup="Rozsah" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count of Models]" caption="__XL_Count of Models" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Rozsah" uniqueName="[Rozsah]" caption="Rozsah"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Rozsah" caption="Rozsah"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Období">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Období">
   <location ref="A3:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="7">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4908,26 +4860,26 @@
     <i r="1">
       <x/>
     </i>
+    <i>
+      <x v="1"/>
+    </i>
     <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
       <x v="2"/>
     </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i r="1">
       <x v="3"/>
     </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
     <i r="1">
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -5071,24 +5023,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B2:E25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B2:E23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="7">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5096,9 +5048,10 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5108,7 +5061,7 @@
     <field x="1"/>
     <field x="5"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="21">
     <i>
       <x/>
     </i>
@@ -5118,26 +5071,38 @@
     <i r="2">
       <x/>
     </i>
-    <i r="2">
+    <i>
       <x v="1"/>
     </i>
     <i r="1">
       <x v="1"/>
     </i>
     <i r="2">
-      <x/>
+      <x v="1"/>
     </i>
     <i r="2">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="2"/>
     </i>
     <i r="2">
-      <x/>
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
     </i>
     <i r="2">
       <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="3"/>
@@ -5145,35 +5110,17 @@
     <i r="2">
       <x v="1"/>
     </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
     <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="4"/>
     </i>
     <i r="2">
-      <x/>
+      <x v="1"/>
     </i>
     <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -5300,6 +5247,165 @@
     <rowHierarchyUsage hierarchyUsage="1"/>
     <rowHierarchyUsage hierarchyUsage="2"/>
     <rowHierarchyUsage hierarchyUsage="31"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_List1!$A$1:$AU$292">
+        <x15:activeTabTopLevelEntity name="[Rozsah]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C4:E14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Počet ID osoby" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Jednoznačný počet Událost ID" fld="3" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <pivotHierarchies count="54">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+    <rowHierarchyUsage hierarchyUsage="2"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -5583,26 +5689,26 @@
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1077</v>
+        <v>1015</v>
       </c>
       <c r="B3" t="s">
-        <v>1079</v>
+        <v>1017</v>
       </c>
       <c r="C3" t="s">
-        <v>1078</v>
+        <v>1016</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -5610,25 +5716,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="B4" s="5">
-        <v>32</v>
-      </c>
+        <v>1018</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
+        <v>1018</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="5">
         <v>1</v>
       </c>
@@ -5637,45 +5739,45 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>542</v>
+      <c r="A6" s="2" t="s">
+        <v>992</v>
       </c>
       <c r="B6" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>738</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>944</v>
+        <v>738</v>
       </c>
       <c r="B8" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5736,16 +5838,16 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1073</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="5">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="C13" s="5">
+        <v>88</v>
+      </c>
+      <c r="D13" s="5">
         <v>94</v>
-      </c>
-      <c r="D13" s="5">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5757,7 +5859,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E25"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
@@ -5773,39 +5875,35 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>1072</v>
+        <v>1010</v>
       </c>
       <c r="C2" t="s">
-        <v>1074</v>
+        <v>1012</v>
       </c>
       <c r="D2" t="s">
-        <v>1075</v>
+        <v>1013</v>
       </c>
       <c r="E2" t="s">
-        <v>1076</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="C3" s="5">
-        <v>32</v>
-      </c>
+        <v>1018</v>
+      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
+        <v>1018</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5">
         <v>1</v>
       </c>
@@ -5815,11 +5913,9 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
+        <v>1018</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5">
         <v>1</v>
       </c>
@@ -5828,31 +5924,31 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>72</v>
+      <c r="B6" s="2" t="s">
+        <v>992</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>542</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -5860,13 +5956,13 @@
         <v>71</v>
       </c>
       <c r="C8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -5874,13 +5970,13 @@
         <v>72</v>
       </c>
       <c r="C9" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -5888,13 +5984,13 @@
         <v>738</v>
       </c>
       <c r="C10" s="5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D10" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -5902,13 +5998,13 @@
         <v>71</v>
       </c>
       <c r="C11" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -5916,195 +6012,167 @@
         <v>72</v>
       </c>
       <c r="C12" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>944</v>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>259</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>72</v>
+      <c r="B14" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="5">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>48</v>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="5">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>56</v>
+      <c r="B16" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="5">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E16" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>71</v>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="5">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D17" s="5">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="5">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D18" s="5">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E18" s="5">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>66</v>
+      <c r="B19" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C19" s="5">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D19" s="5">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>71</v>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="5">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D20" s="5">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E20" s="5">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="5">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="D21" s="5">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E21" s="5">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>49</v>
+      <c r="B22" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C22" s="5">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D22" s="5">
         <v>19</v>
       </c>
       <c r="E22" s="5">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>71</v>
+      <c r="B23" s="2" t="s">
+        <v>1011</v>
       </c>
       <c r="C23" s="5">
-        <v>9</v>
+        <v>268</v>
       </c>
       <c r="D23" s="5">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E23" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="5">
-        <v>41</v>
-      </c>
-      <c r="D24" s="5">
-        <v>19</v>
-      </c>
-      <c r="E24" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C25" s="5">
-        <v>291</v>
-      </c>
-      <c r="D25" s="5">
         <v>94</v>
-      </c>
-      <c r="E25" s="5">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6114,17 +6182,155 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5">
+        <v>259</v>
+      </c>
+      <c r="E10" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5">
+        <v>168</v>
+      </c>
+      <c r="E12" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D14" s="5">
+        <v>268</v>
+      </c>
+      <c r="E14" s="5">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S268" sqref="A268:XFD290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="6"/>
     <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
@@ -40584,7 +40790,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="257" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>177</v>
       </c>
@@ -40718,7 +40924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="258" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>289</v>
       </c>
@@ -40852,7 +41058,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="259" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>633</v>
       </c>
@@ -40986,7 +41192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="260" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>275</v>
       </c>
@@ -41120,7 +41326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="261" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>159</v>
       </c>
@@ -41254,7 +41460,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="262" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>94</v>
       </c>
@@ -41388,7 +41594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="263" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>324</v>
       </c>
@@ -41522,7 +41728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="264" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>571</v>
       </c>
@@ -41656,7 +41862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="265" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>114</v>
       </c>
@@ -41790,7 +41996,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="266" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>770</v>
       </c>
@@ -41924,7 +42130,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="267" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>135</v>
       </c>
@@ -42055,3115 +42261,12 @@
         <v>71</v>
       </c>
       <c r="AS267" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="268" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>480</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D268" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E268" t="s">
-        <v>78</v>
-      </c>
-      <c r="F268" t="s">
-        <v>184</v>
-      </c>
-      <c r="G268" t="s">
-        <v>53</v>
-      </c>
-      <c r="H268" t="s">
-        <v>98</v>
-      </c>
-      <c r="I268" t="s">
-        <v>868</v>
-      </c>
-      <c r="J268" t="s">
-        <v>65</v>
-      </c>
-      <c r="K268" t="s">
-        <v>1001</v>
-      </c>
-      <c r="L268" t="s">
-        <v>151</v>
-      </c>
-      <c r="M268" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N268" t="s">
-        <v>153</v>
-      </c>
-      <c r="O268" t="s">
-        <v>98</v>
-      </c>
-      <c r="P268" t="s">
-        <v>1003</v>
-      </c>
-      <c r="Q268" t="s">
-        <v>1000</v>
-      </c>
-      <c r="R268" t="s">
-        <v>260</v>
-      </c>
-      <c r="S268" t="s">
-        <v>278</v>
-      </c>
-      <c r="T268" t="s">
-        <v>107</v>
-      </c>
-      <c r="U268" t="s">
-        <v>65</v>
-      </c>
-      <c r="V268" t="s">
-        <v>108</v>
-      </c>
-      <c r="W268" t="s">
-        <v>65</v>
-      </c>
-      <c r="X268" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y268" t="s">
-        <v>1004</v>
-      </c>
-      <c r="Z268" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA268" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB268" t="s">
-        <v>770</v>
-      </c>
-      <c r="AC268" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD268" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE268" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF268" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG268" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH268" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ268" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK268" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL268" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM268" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN268" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO268" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP268" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ268" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR268" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS268" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="269" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>614</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D269" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E269" t="s">
-        <v>78</v>
-      </c>
-      <c r="F269" t="s">
-        <v>184</v>
-      </c>
-      <c r="G269" t="s">
-        <v>53</v>
-      </c>
-      <c r="H269" t="s">
-        <v>98</v>
-      </c>
-      <c r="I269" t="s">
-        <v>868</v>
-      </c>
-      <c r="J269" t="s">
-        <v>65</v>
-      </c>
-      <c r="K269" t="s">
-        <v>1001</v>
-      </c>
-      <c r="L269" t="s">
-        <v>151</v>
-      </c>
-      <c r="M269" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N269" t="s">
-        <v>153</v>
-      </c>
-      <c r="O269" t="s">
-        <v>98</v>
-      </c>
-      <c r="P269" t="s">
-        <v>1003</v>
-      </c>
-      <c r="Q269" t="s">
-        <v>1000</v>
-      </c>
-      <c r="R269" t="s">
-        <v>260</v>
-      </c>
-      <c r="S269" t="s">
-        <v>278</v>
-      </c>
-      <c r="T269" t="s">
-        <v>107</v>
-      </c>
-      <c r="U269" t="s">
-        <v>65</v>
-      </c>
-      <c r="V269" t="s">
-        <v>108</v>
-      </c>
-      <c r="W269" t="s">
-        <v>65</v>
-      </c>
-      <c r="X269" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y269" t="s">
-        <v>1004</v>
-      </c>
-      <c r="Z269" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA269" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB269" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC269" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD269" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE269" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF269" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG269" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH269" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ269" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK269" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL269" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM269" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN269" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO269" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP269" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ269" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR269" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS269" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="270" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>934</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D270" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E270" t="s">
-        <v>105</v>
-      </c>
-      <c r="F270" t="s">
-        <v>848</v>
-      </c>
-      <c r="G270" t="s">
-        <v>849</v>
-      </c>
-      <c r="H270" t="s">
-        <v>54</v>
-      </c>
-      <c r="I270" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J270" t="s">
-        <v>65</v>
-      </c>
-      <c r="K270" t="s">
-        <v>108</v>
-      </c>
-      <c r="L270" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M270" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N270" t="s">
-        <v>955</v>
-      </c>
-      <c r="O270" t="s">
-        <v>54</v>
-      </c>
-      <c r="P270" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q270" t="s">
-        <v>1000</v>
-      </c>
-      <c r="R270" t="s">
-        <v>1008</v>
-      </c>
-      <c r="S270" t="s">
-        <v>1008</v>
-      </c>
-      <c r="T270" t="s">
-        <v>165</v>
-      </c>
-      <c r="U270" t="s">
-        <v>65</v>
-      </c>
-      <c r="V270" t="s">
-        <v>65</v>
-      </c>
-      <c r="W270" t="s">
-        <v>65</v>
-      </c>
-      <c r="X270" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y270" t="s">
-        <v>1009</v>
-      </c>
-      <c r="Z270" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AA270" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB270" t="s">
-        <v>502</v>
-      </c>
-      <c r="AC270" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD270" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE270" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF270" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG270" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH270" t="s">
-        <v>334</v>
-      </c>
-      <c r="AJ270" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK270" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL270" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM270" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN270" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO270" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP270" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ270" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR270" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS270" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT270" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AU270" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="271" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>502</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D271" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E271" t="s">
-        <v>105</v>
-      </c>
-      <c r="F271" t="s">
-        <v>848</v>
-      </c>
-      <c r="G271" t="s">
-        <v>849</v>
-      </c>
-      <c r="H271" t="s">
-        <v>54</v>
-      </c>
-      <c r="I271" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J271" t="s">
-        <v>65</v>
-      </c>
-      <c r="K271" t="s">
-        <v>108</v>
-      </c>
-      <c r="L271" t="s">
-        <v>812</v>
-      </c>
-      <c r="M271" t="s">
-        <v>1013</v>
-      </c>
-      <c r="N271" t="s">
-        <v>858</v>
-      </c>
-      <c r="O271" t="s">
-        <v>54</v>
-      </c>
-      <c r="P271" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q271" t="s">
-        <v>812</v>
-      </c>
-      <c r="R271" t="s">
-        <v>1014</v>
-      </c>
-      <c r="S271" t="s">
-        <v>1014</v>
-      </c>
-      <c r="T271" t="s">
-        <v>165</v>
-      </c>
-      <c r="U271" t="s">
-        <v>65</v>
-      </c>
-      <c r="V271" t="s">
-        <v>65</v>
-      </c>
-      <c r="W271" t="s">
-        <v>65</v>
-      </c>
-      <c r="X271" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z271" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA271" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB271" t="s">
-        <v>937</v>
-      </c>
-      <c r="AC271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE271" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG271" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH271" t="s">
-        <v>858</v>
-      </c>
-      <c r="AJ271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR271" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS271" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="272" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>128</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D272" t="s">
-        <v>160</v>
-      </c>
-      <c r="E272" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F272" t="s">
-        <v>487</v>
-      </c>
-      <c r="G272" t="s">
-        <v>488</v>
-      </c>
-      <c r="H272" t="s">
-        <v>433</v>
-      </c>
-      <c r="I272" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J272" t="s">
-        <v>56</v>
-      </c>
-      <c r="K272" t="s">
-        <v>49</v>
-      </c>
-      <c r="L272" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M272" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N272" t="s">
-        <v>1019</v>
-      </c>
-      <c r="O272" t="s">
-        <v>103</v>
-      </c>
-      <c r="P272" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q272" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R272" t="s">
-        <v>1015</v>
-      </c>
-      <c r="S272" t="s">
-        <v>1015</v>
-      </c>
-      <c r="T272" t="s">
-        <v>165</v>
-      </c>
-      <c r="U272" t="s">
-        <v>542</v>
-      </c>
-      <c r="V272" t="s">
-        <v>738</v>
-      </c>
-      <c r="W272" t="s">
-        <v>209</v>
-      </c>
-      <c r="X272" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y272" t="s">
-        <v>1021</v>
-      </c>
-      <c r="Z272" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA272" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB272" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD272" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG272" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AH272" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AJ272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO272" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS272" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT272" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU272" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="273" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>381</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D273" t="s">
-        <v>160</v>
-      </c>
-      <c r="E273" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F273" t="s">
-        <v>487</v>
-      </c>
-      <c r="G273" t="s">
-        <v>488</v>
-      </c>
-      <c r="H273" t="s">
-        <v>433</v>
-      </c>
-      <c r="I273" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J273" t="s">
-        <v>56</v>
-      </c>
-      <c r="K273" t="s">
-        <v>49</v>
-      </c>
-      <c r="L273" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M273" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N273" t="s">
-        <v>1019</v>
-      </c>
-      <c r="O273" t="s">
-        <v>103</v>
-      </c>
-      <c r="P273" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q273" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R273" t="s">
-        <v>1015</v>
-      </c>
-      <c r="S273" t="s">
-        <v>1015</v>
-      </c>
-      <c r="T273" t="s">
-        <v>165</v>
-      </c>
-      <c r="U273" t="s">
-        <v>542</v>
-      </c>
-      <c r="V273" t="s">
-        <v>738</v>
-      </c>
-      <c r="W273" t="s">
-        <v>209</v>
-      </c>
-      <c r="X273" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y273" t="s">
-        <v>1021</v>
-      </c>
-      <c r="Z273" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA273" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB273" t="s">
-        <v>633</v>
-      </c>
-      <c r="AC273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE273" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG273" t="s">
-        <v>878</v>
-      </c>
-      <c r="AH273" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO273" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS273" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT273" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AU273" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="274" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>944</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D274" t="s">
-        <v>160</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F274" t="s">
-        <v>487</v>
-      </c>
-      <c r="G274" t="s">
-        <v>488</v>
-      </c>
-      <c r="H274" t="s">
-        <v>433</v>
-      </c>
-      <c r="I274" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J274" t="s">
-        <v>56</v>
-      </c>
-      <c r="K274" t="s">
-        <v>49</v>
-      </c>
-      <c r="L274" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M274" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N274" t="s">
-        <v>1019</v>
-      </c>
-      <c r="O274" t="s">
-        <v>103</v>
-      </c>
-      <c r="P274" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q274" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R274" t="s">
-        <v>1015</v>
-      </c>
-      <c r="S274" t="s">
-        <v>1015</v>
-      </c>
-      <c r="T274" t="s">
-        <v>165</v>
-      </c>
-      <c r="U274" t="s">
-        <v>542</v>
-      </c>
-      <c r="V274" t="s">
-        <v>738</v>
-      </c>
-      <c r="W274" t="s">
-        <v>209</v>
-      </c>
-      <c r="X274" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y274" t="s">
-        <v>1021</v>
-      </c>
-      <c r="Z274" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AA274" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB274" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC274" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG274" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH274" t="s">
-        <v>790</v>
-      </c>
-      <c r="AJ274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO274" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS274" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT274" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AU274" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="275" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>224</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D275" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E275" t="s">
-        <v>278</v>
-      </c>
-      <c r="F275" t="s">
-        <v>585</v>
-      </c>
-      <c r="G275" t="s">
-        <v>488</v>
-      </c>
-      <c r="H275" t="s">
-        <v>98</v>
-      </c>
-      <c r="I275" t="s">
-        <v>868</v>
-      </c>
-      <c r="J275" t="s">
-        <v>56</v>
-      </c>
-      <c r="K275" t="s">
-        <v>1031</v>
-      </c>
-      <c r="L275" t="s">
-        <v>151</v>
-      </c>
-      <c r="M275" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N275" t="s">
-        <v>153</v>
-      </c>
-      <c r="O275" t="s">
-        <v>98</v>
-      </c>
-      <c r="P275" t="s">
-        <v>1033</v>
-      </c>
-      <c r="Q275" t="s">
-        <v>1030</v>
-      </c>
-      <c r="R275" t="s">
-        <v>283</v>
-      </c>
-      <c r="S275" t="s">
-        <v>264</v>
-      </c>
-      <c r="T275" t="s">
-        <v>107</v>
-      </c>
-      <c r="U275" t="s">
-        <v>56</v>
-      </c>
-      <c r="V275" t="s">
-        <v>66</v>
-      </c>
-      <c r="W275" t="s">
-        <v>65</v>
-      </c>
-      <c r="X275" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y275" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Z275" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA275" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB275" t="s">
-        <v>944</v>
-      </c>
-      <c r="AC275" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD275" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE275" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF275" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG275" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH275" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ275" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK275" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL275" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM275" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN275" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO275" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP275" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ275" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR275" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS275" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="276" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>819</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D276" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E276" t="s">
-        <v>278</v>
-      </c>
-      <c r="F276" t="s">
-        <v>585</v>
-      </c>
-      <c r="G276" t="s">
-        <v>488</v>
-      </c>
-      <c r="H276" t="s">
-        <v>98</v>
-      </c>
-      <c r="I276" t="s">
-        <v>868</v>
-      </c>
-      <c r="J276" t="s">
-        <v>56</v>
-      </c>
-      <c r="K276" t="s">
-        <v>1031</v>
-      </c>
-      <c r="L276" t="s">
-        <v>151</v>
-      </c>
-      <c r="M276" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N276" t="s">
-        <v>153</v>
-      </c>
-      <c r="O276" t="s">
-        <v>98</v>
-      </c>
-      <c r="P276" t="s">
-        <v>1033</v>
-      </c>
-      <c r="Q276" t="s">
-        <v>1030</v>
-      </c>
-      <c r="R276" t="s">
-        <v>283</v>
-      </c>
-      <c r="S276" t="s">
-        <v>264</v>
-      </c>
-      <c r="T276" t="s">
-        <v>107</v>
-      </c>
-      <c r="U276" t="s">
-        <v>56</v>
-      </c>
-      <c r="V276" t="s">
-        <v>66</v>
-      </c>
-      <c r="W276" t="s">
-        <v>65</v>
-      </c>
-      <c r="X276" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y276" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Z276" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA276" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB276" t="s">
-        <v>505</v>
-      </c>
-      <c r="AC276" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD276" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE276" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF276" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG276" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH276" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ276" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK276" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL276" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM276" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN276" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO276" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP276" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ276" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR276" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS276" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="277" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>414</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D277" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E277" t="s">
-        <v>278</v>
-      </c>
-      <c r="F277" t="s">
-        <v>585</v>
-      </c>
-      <c r="G277" t="s">
-        <v>488</v>
-      </c>
-      <c r="H277" t="s">
-        <v>98</v>
-      </c>
-      <c r="I277" t="s">
-        <v>868</v>
-      </c>
-      <c r="J277" t="s">
-        <v>56</v>
-      </c>
-      <c r="K277" t="s">
-        <v>1031</v>
-      </c>
-      <c r="L277" t="s">
-        <v>151</v>
-      </c>
-      <c r="M277" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N277" t="s">
-        <v>153</v>
-      </c>
-      <c r="O277" t="s">
-        <v>98</v>
-      </c>
-      <c r="P277" t="s">
-        <v>1033</v>
-      </c>
-      <c r="Q277" t="s">
-        <v>1030</v>
-      </c>
-      <c r="R277" t="s">
-        <v>283</v>
-      </c>
-      <c r="S277" t="s">
-        <v>264</v>
-      </c>
-      <c r="T277" t="s">
-        <v>107</v>
-      </c>
-      <c r="U277" t="s">
-        <v>56</v>
-      </c>
-      <c r="V277" t="s">
-        <v>66</v>
-      </c>
-      <c r="W277" t="s">
-        <v>65</v>
-      </c>
-      <c r="X277" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y277" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Z277" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA277" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB277" t="s">
-        <v>505</v>
-      </c>
-      <c r="AC277" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD277" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE277" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF277" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG277" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH277" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ277" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK277" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL277" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM277" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN277" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO277" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP277" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ277" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR277" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS277" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="278" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>270</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D278" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F278" t="s">
-        <v>184</v>
-      </c>
-      <c r="G278" t="s">
-        <v>53</v>
-      </c>
-      <c r="H278" t="s">
-        <v>98</v>
-      </c>
-      <c r="I278" t="s">
-        <v>868</v>
-      </c>
-      <c r="J278" t="s">
-        <v>56</v>
-      </c>
-      <c r="K278" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L278" t="s">
-        <v>151</v>
-      </c>
-      <c r="M278" t="s">
-        <v>1037</v>
-      </c>
-      <c r="N278" t="s">
-        <v>153</v>
-      </c>
-      <c r="O278" t="s">
-        <v>98</v>
-      </c>
-      <c r="P278" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Q278" t="s">
-        <v>1030</v>
-      </c>
-      <c r="R278" t="s">
-        <v>520</v>
-      </c>
-      <c r="S278" t="s">
-        <v>438</v>
-      </c>
-      <c r="T278" t="s">
-        <v>107</v>
-      </c>
-      <c r="U278" t="s">
-        <v>65</v>
-      </c>
-      <c r="V278" t="s">
-        <v>65</v>
-      </c>
-      <c r="W278" t="s">
-        <v>56</v>
-      </c>
-      <c r="X278" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y278" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Z278" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA278" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB278" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AC278" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG278" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AH278" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR278" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS278" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="279" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>273</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D279" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F279" t="s">
-        <v>184</v>
-      </c>
-      <c r="G279" t="s">
-        <v>53</v>
-      </c>
-      <c r="H279" t="s">
-        <v>98</v>
-      </c>
-      <c r="I279" t="s">
-        <v>868</v>
-      </c>
-      <c r="J279" t="s">
-        <v>56</v>
-      </c>
-      <c r="K279" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L279" t="s">
-        <v>151</v>
-      </c>
-      <c r="M279" t="s">
-        <v>1037</v>
-      </c>
-      <c r="N279" t="s">
-        <v>153</v>
-      </c>
-      <c r="O279" t="s">
-        <v>98</v>
-      </c>
-      <c r="P279" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Q279" t="s">
-        <v>1030</v>
-      </c>
-      <c r="R279" t="s">
-        <v>520</v>
-      </c>
-      <c r="S279" t="s">
-        <v>438</v>
-      </c>
-      <c r="T279" t="s">
-        <v>107</v>
-      </c>
-      <c r="U279" t="s">
-        <v>65</v>
-      </c>
-      <c r="V279" t="s">
-        <v>65</v>
-      </c>
-      <c r="W279" t="s">
-        <v>56</v>
-      </c>
-      <c r="X279" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y279" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Z279" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AA279" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB279" t="s">
-        <v>452</v>
-      </c>
-      <c r="AC279" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD279" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE279" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF279" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG279" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH279" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ279" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK279" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL279" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM279" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN279" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO279" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP279" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ279" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR279" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS279" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="280" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>890</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="D280" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E280" t="s">
-        <v>284</v>
-      </c>
-      <c r="F280" t="s">
-        <v>184</v>
-      </c>
-      <c r="G280" t="s">
-        <v>53</v>
-      </c>
-      <c r="H280" t="s">
-        <v>98</v>
-      </c>
-      <c r="I280" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J280" t="s">
-        <v>56</v>
-      </c>
-      <c r="K280" t="s">
-        <v>1044</v>
-      </c>
-      <c r="L280" t="s">
-        <v>666</v>
-      </c>
-      <c r="M280" t="s">
-        <v>1045</v>
-      </c>
-      <c r="N280" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O280" t="s">
-        <v>433</v>
-      </c>
-      <c r="P280" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q280" t="s">
-        <v>721</v>
-      </c>
-      <c r="R280" t="s">
-        <v>1047</v>
-      </c>
-      <c r="S280" t="s">
-        <v>1048</v>
-      </c>
-      <c r="T280" t="s">
-        <v>261</v>
-      </c>
-      <c r="U280" t="s">
-        <v>65</v>
-      </c>
-      <c r="V280" t="s">
-        <v>56</v>
-      </c>
-      <c r="W280" t="s">
-        <v>65</v>
-      </c>
-      <c r="X280" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y280" t="s">
-        <v>1049</v>
-      </c>
-      <c r="Z280" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA280" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB280" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC280" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG280" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH280" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR280" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS280" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="281" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="D281" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E281" t="s">
-        <v>284</v>
-      </c>
-      <c r="F281" t="s">
-        <v>184</v>
-      </c>
-      <c r="G281" t="s">
-        <v>53</v>
-      </c>
-      <c r="H281" t="s">
-        <v>98</v>
-      </c>
-      <c r="I281" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J281" t="s">
-        <v>56</v>
-      </c>
-      <c r="K281" t="s">
-        <v>1044</v>
-      </c>
-      <c r="L281" t="s">
-        <v>666</v>
-      </c>
-      <c r="M281" t="s">
-        <v>1045</v>
-      </c>
-      <c r="N281" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O281" t="s">
-        <v>433</v>
-      </c>
-      <c r="P281" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q281" t="s">
-        <v>721</v>
-      </c>
-      <c r="R281" t="s">
-        <v>1047</v>
-      </c>
-      <c r="S281" t="s">
-        <v>1048</v>
-      </c>
-      <c r="T281" t="s">
-        <v>261</v>
-      </c>
-      <c r="U281" t="s">
-        <v>65</v>
-      </c>
-      <c r="V281" t="s">
-        <v>56</v>
-      </c>
-      <c r="W281" t="s">
-        <v>65</v>
-      </c>
-      <c r="X281" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y281" t="s">
-        <v>1049</v>
-      </c>
-      <c r="Z281" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA281" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB281" t="s">
-        <v>828</v>
-      </c>
-      <c r="AC281" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD281" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE281" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF281" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG281" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH281" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ281" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK281" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL281" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM281" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN281" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO281" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP281" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ281" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR281" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS281" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="282" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="D282" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E282" t="s">
-        <v>576</v>
-      </c>
-      <c r="F282" t="s">
-        <v>213</v>
-      </c>
-      <c r="G282" t="s">
-        <v>80</v>
-      </c>
-      <c r="H282" t="s">
-        <v>122</v>
-      </c>
-      <c r="I282" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J282" t="s">
-        <v>66</v>
-      </c>
-      <c r="K282" t="s">
-        <v>686</v>
-      </c>
-      <c r="L282" t="s">
-        <v>969</v>
-      </c>
-      <c r="M282" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N282" t="s">
-        <v>203</v>
-      </c>
-      <c r="O282" t="s">
-        <v>122</v>
-      </c>
-      <c r="P282" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q282" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R282" t="s">
-        <v>78</v>
-      </c>
-      <c r="S282" t="s">
-        <v>278</v>
-      </c>
-      <c r="T282" t="s">
-        <v>206</v>
-      </c>
-      <c r="U282" t="s">
-        <v>65</v>
-      </c>
-      <c r="V282" t="s">
-        <v>934</v>
-      </c>
-      <c r="W282" t="s">
-        <v>65</v>
-      </c>
-      <c r="X282" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y282" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Z282" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA282" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB282" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AC282" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG282" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH282" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR282" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS282" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="283" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="D283" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E283" t="s">
-        <v>576</v>
-      </c>
-      <c r="F283" t="s">
-        <v>213</v>
-      </c>
-      <c r="G283" t="s">
-        <v>80</v>
-      </c>
-      <c r="H283" t="s">
-        <v>122</v>
-      </c>
-      <c r="I283" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J283" t="s">
-        <v>66</v>
-      </c>
-      <c r="K283" t="s">
-        <v>686</v>
-      </c>
-      <c r="L283" t="s">
-        <v>969</v>
-      </c>
-      <c r="M283" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N283" t="s">
-        <v>203</v>
-      </c>
-      <c r="O283" t="s">
-        <v>122</v>
-      </c>
-      <c r="P283" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q283" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R283" t="s">
-        <v>78</v>
-      </c>
-      <c r="S283" t="s">
-        <v>278</v>
-      </c>
-      <c r="T283" t="s">
-        <v>206</v>
-      </c>
-      <c r="U283" t="s">
-        <v>65</v>
-      </c>
-      <c r="V283" t="s">
-        <v>934</v>
-      </c>
-      <c r="W283" t="s">
-        <v>65</v>
-      </c>
-      <c r="X283" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y283" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Z283" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA283" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB283" t="s">
-        <v>535</v>
-      </c>
-      <c r="AC283" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG283" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH283" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR283" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS283" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="284" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C284" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="D284" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E284" t="s">
-        <v>576</v>
-      </c>
-      <c r="F284" t="s">
-        <v>213</v>
-      </c>
-      <c r="G284" t="s">
-        <v>80</v>
-      </c>
-      <c r="H284" t="s">
-        <v>122</v>
-      </c>
-      <c r="I284" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J284" t="s">
-        <v>66</v>
-      </c>
-      <c r="K284" t="s">
-        <v>686</v>
-      </c>
-      <c r="L284" t="s">
-        <v>969</v>
-      </c>
-      <c r="M284" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N284" t="s">
-        <v>203</v>
-      </c>
-      <c r="O284" t="s">
-        <v>122</v>
-      </c>
-      <c r="P284" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q284" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R284" t="s">
-        <v>78</v>
-      </c>
-      <c r="S284" t="s">
-        <v>278</v>
-      </c>
-      <c r="T284" t="s">
-        <v>206</v>
-      </c>
-      <c r="U284" t="s">
-        <v>65</v>
-      </c>
-      <c r="V284" t="s">
-        <v>934</v>
-      </c>
-      <c r="W284" t="s">
-        <v>65</v>
-      </c>
-      <c r="X284" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y284" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Z284" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA284" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB284" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC284" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD284" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE284" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF284" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG284" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH284" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ284" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK284" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL284" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM284" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN284" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO284" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP284" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ284" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR284" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS284" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="285" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="D285" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E285" t="s">
-        <v>576</v>
-      </c>
-      <c r="F285" t="s">
-        <v>213</v>
-      </c>
-      <c r="G285" t="s">
-        <v>80</v>
-      </c>
-      <c r="H285" t="s">
-        <v>122</v>
-      </c>
-      <c r="I285" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J285" t="s">
-        <v>66</v>
-      </c>
-      <c r="K285" t="s">
-        <v>686</v>
-      </c>
-      <c r="L285" t="s">
-        <v>969</v>
-      </c>
-      <c r="M285" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N285" t="s">
-        <v>203</v>
-      </c>
-      <c r="O285" t="s">
-        <v>122</v>
-      </c>
-      <c r="P285" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q285" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R285" t="s">
-        <v>78</v>
-      </c>
-      <c r="S285" t="s">
-        <v>278</v>
-      </c>
-      <c r="T285" t="s">
-        <v>206</v>
-      </c>
-      <c r="U285" t="s">
-        <v>65</v>
-      </c>
-      <c r="V285" t="s">
-        <v>934</v>
-      </c>
-      <c r="W285" t="s">
-        <v>65</v>
-      </c>
-      <c r="X285" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y285" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Z285" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA285" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB285" t="s">
-        <v>819</v>
-      </c>
-      <c r="AC285" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD285" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE285" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF285" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG285" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH285" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ285" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK285" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL285" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM285" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN285" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO285" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP285" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ285" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR285" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS285" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="286" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E286" t="s">
-        <v>576</v>
-      </c>
-      <c r="F286" t="s">
-        <v>213</v>
-      </c>
-      <c r="G286" t="s">
-        <v>80</v>
-      </c>
-      <c r="H286" t="s">
-        <v>122</v>
-      </c>
-      <c r="I286" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J286" t="s">
-        <v>66</v>
-      </c>
-      <c r="K286" t="s">
-        <v>686</v>
-      </c>
-      <c r="L286" t="s">
-        <v>969</v>
-      </c>
-      <c r="M286" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N286" t="s">
-        <v>203</v>
-      </c>
-      <c r="O286" t="s">
-        <v>122</v>
-      </c>
-      <c r="P286" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q286" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R286" t="s">
-        <v>78</v>
-      </c>
-      <c r="S286" t="s">
-        <v>278</v>
-      </c>
-      <c r="T286" t="s">
-        <v>206</v>
-      </c>
-      <c r="U286" t="s">
-        <v>65</v>
-      </c>
-      <c r="V286" t="s">
-        <v>934</v>
-      </c>
-      <c r="W286" t="s">
-        <v>65</v>
-      </c>
-      <c r="X286" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y286" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Z286" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA286" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB286" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC286" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD286" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE286" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF286" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG286" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH286" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ286" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK286" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL286" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM286" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN286" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO286" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP286" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ286" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR286" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS286" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="287" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="D287" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E287" t="s">
-        <v>576</v>
-      </c>
-      <c r="F287" t="s">
-        <v>213</v>
-      </c>
-      <c r="G287" t="s">
-        <v>80</v>
-      </c>
-      <c r="H287" t="s">
-        <v>122</v>
-      </c>
-      <c r="I287" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J287" t="s">
-        <v>66</v>
-      </c>
-      <c r="K287" t="s">
-        <v>686</v>
-      </c>
-      <c r="L287" t="s">
-        <v>969</v>
-      </c>
-      <c r="M287" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N287" t="s">
-        <v>203</v>
-      </c>
-      <c r="O287" t="s">
-        <v>122</v>
-      </c>
-      <c r="P287" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q287" t="s">
-        <v>1052</v>
-      </c>
-      <c r="R287" t="s">
-        <v>78</v>
-      </c>
-      <c r="S287" t="s">
-        <v>278</v>
-      </c>
-      <c r="T287" t="s">
-        <v>206</v>
-      </c>
-      <c r="U287" t="s">
-        <v>65</v>
-      </c>
-      <c r="V287" t="s">
-        <v>934</v>
-      </c>
-      <c r="W287" t="s">
-        <v>65</v>
-      </c>
-      <c r="X287" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y287" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Z287" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA287" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB287" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC287" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD287" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE287" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF287" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG287" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH287" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ287" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK287" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL287" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM287" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN287" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO287" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP287" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ287" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR287" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS287" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="288" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="D288" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E288" t="s">
-        <v>145</v>
-      </c>
-      <c r="F288" t="s">
-        <v>585</v>
-      </c>
-      <c r="G288" t="s">
-        <v>488</v>
-      </c>
-      <c r="H288" t="s">
-        <v>98</v>
-      </c>
-      <c r="I288" t="s">
-        <v>489</v>
-      </c>
-      <c r="J288" t="s">
-        <v>56</v>
-      </c>
-      <c r="K288" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L288" t="s">
-        <v>379</v>
-      </c>
-      <c r="M288" t="s">
-        <v>491</v>
-      </c>
-      <c r="N288" t="s">
-        <v>492</v>
-      </c>
-      <c r="O288" t="s">
-        <v>98</v>
-      </c>
-      <c r="P288" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q288" t="s">
-        <v>485</v>
-      </c>
-      <c r="R288" t="s">
-        <v>380</v>
-      </c>
-      <c r="S288" t="s">
-        <v>219</v>
-      </c>
-      <c r="T288" t="s">
-        <v>261</v>
-      </c>
-      <c r="U288" t="s">
-        <v>56</v>
-      </c>
-      <c r="V288" t="s">
-        <v>66</v>
-      </c>
-      <c r="W288" t="s">
-        <v>65</v>
-      </c>
-      <c r="X288" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y288" t="s">
-        <v>1064</v>
-      </c>
-      <c r="Z288" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA288" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB288" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC288" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD288" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE288" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF288" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG288" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH288" t="s">
-        <v>492</v>
-      </c>
-      <c r="AJ288" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK288" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL288" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM288" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN288" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO288" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP288" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ288" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR288" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS288" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="289" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C289" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="D289" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E289" t="s">
-        <v>145</v>
-      </c>
-      <c r="F289" t="s">
-        <v>585</v>
-      </c>
-      <c r="G289" t="s">
-        <v>488</v>
-      </c>
-      <c r="H289" t="s">
-        <v>98</v>
-      </c>
-      <c r="I289" t="s">
-        <v>489</v>
-      </c>
-      <c r="J289" t="s">
-        <v>56</v>
-      </c>
-      <c r="K289" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L289" t="s">
-        <v>379</v>
-      </c>
-      <c r="M289" t="s">
-        <v>491</v>
-      </c>
-      <c r="N289" t="s">
-        <v>492</v>
-      </c>
-      <c r="O289" t="s">
-        <v>98</v>
-      </c>
-      <c r="P289" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q289" t="s">
-        <v>485</v>
-      </c>
-      <c r="R289" t="s">
-        <v>380</v>
-      </c>
-      <c r="S289" t="s">
-        <v>219</v>
-      </c>
-      <c r="T289" t="s">
-        <v>261</v>
-      </c>
-      <c r="U289" t="s">
-        <v>56</v>
-      </c>
-      <c r="V289" t="s">
-        <v>66</v>
-      </c>
-      <c r="W289" t="s">
-        <v>65</v>
-      </c>
-      <c r="X289" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y289" t="s">
-        <v>1064</v>
-      </c>
-      <c r="Z289" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA289" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB289" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC289" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD289" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE289" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF289" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG289" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH289" t="s">
-        <v>492</v>
-      </c>
-      <c r="AJ289" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK289" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL289" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM289" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN289" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO289" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP289" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ289" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR289" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS289" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="290" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="D290" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E290" t="s">
-        <v>145</v>
-      </c>
-      <c r="F290" t="s">
-        <v>585</v>
-      </c>
-      <c r="G290" t="s">
-        <v>488</v>
-      </c>
-      <c r="H290" t="s">
-        <v>98</v>
-      </c>
-      <c r="I290" t="s">
-        <v>489</v>
-      </c>
-      <c r="J290" t="s">
-        <v>56</v>
-      </c>
-      <c r="K290" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L290" t="s">
-        <v>379</v>
-      </c>
-      <c r="M290" t="s">
-        <v>491</v>
-      </c>
-      <c r="N290" t="s">
-        <v>492</v>
-      </c>
-      <c r="O290" t="s">
-        <v>98</v>
-      </c>
-      <c r="P290" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q290" t="s">
-        <v>485</v>
-      </c>
-      <c r="R290" t="s">
-        <v>380</v>
-      </c>
-      <c r="S290" t="s">
-        <v>219</v>
-      </c>
-      <c r="T290" t="s">
-        <v>261</v>
-      </c>
-      <c r="U290" t="s">
-        <v>56</v>
-      </c>
-      <c r="V290" t="s">
-        <v>66</v>
-      </c>
-      <c r="W290" t="s">
-        <v>65</v>
-      </c>
-      <c r="X290" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y290" t="s">
-        <v>1064</v>
-      </c>
-      <c r="Z290" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA290" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB290" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC290" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD290" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE290" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF290" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG290" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH290" t="s">
-        <v>492</v>
-      </c>
-      <c r="AJ290" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK290" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL290" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM290" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN290" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO290" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP290" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ290" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR290" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS290" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="291" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1067</v>
+        <v>1005</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>992</v>
@@ -45172,7 +42275,7 @@
         <v>56</v>
       </c>
       <c r="D291" t="s">
-        <v>1068</v>
+        <v>1006</v>
       </c>
       <c r="E291" t="s">
         <v>260</v>
@@ -45187,7 +42290,7 @@
         <v>103</v>
       </c>
       <c r="I291" t="s">
-        <v>1069</v>
+        <v>1007</v>
       </c>
       <c r="J291" t="s">
         <v>56</v>
@@ -45235,7 +42338,7 @@
         <v>56</v>
       </c>
       <c r="Y291" t="s">
-        <v>1070</v>
+        <v>1008</v>
       </c>
       <c r="Z291" t="s">
         <v>208</v>
@@ -45297,7 +42400,7 @@
     </row>
     <row r="292" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1071</v>
+        <v>1009</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>992</v>
@@ -45306,7 +42409,7 @@
         <v>56</v>
       </c>
       <c r="D292" t="s">
-        <v>1068</v>
+        <v>1006</v>
       </c>
       <c r="E292" t="s">
         <v>260</v>
@@ -45321,7 +42424,7 @@
         <v>103</v>
       </c>
       <c r="I292" t="s">
-        <v>1069</v>
+        <v>1007</v>
       </c>
       <c r="J292" t="s">
         <v>56</v>
@@ -45369,7 +42472,7 @@
         <v>56</v>
       </c>
       <c r="Y292" t="s">
-        <v>1070</v>
+        <v>1008</v>
       </c>
       <c r="Z292" t="s">
         <v>167</v>
